--- a/table/lm/abu_sp_lm.xlsx
+++ b/table/lm/abu_sp_lm.xlsx
@@ -392,16 +392,16 @@
         </is>
       </c>
       <c r="B2">
-        <v>4.055808692924011</v>
+        <v>4.0558</v>
       </c>
       <c r="C2">
-        <v>0.02542756564222096</v>
+        <v>0.0254</v>
       </c>
       <c r="D2">
-        <v>159.5044036063595</v>
+        <v>159.5044</v>
       </c>
       <c r="E2">
-        <v>2.028997804162175e-040</v>
+        <v>0</v>
       </c>
     </row>
     <row r="3">
@@ -411,16 +411,16 @@
         </is>
       </c>
       <c r="B3">
-        <v>-0.1434979182244608</v>
+        <v>-0.1435</v>
       </c>
       <c r="C3">
-        <v>0.0337469758150676</v>
+        <v>0.0337</v>
       </c>
       <c r="D3">
-        <v>-4.25217118745173</v>
+        <v>-4.2522</v>
       </c>
       <c r="E3">
-        <v>0.0002415827445786009</v>
+        <v>0.0002</v>
       </c>
     </row>
     <row r="4">
@@ -430,16 +430,16 @@
         </is>
       </c>
       <c r="B4">
-        <v>-0.05869947718450875</v>
+        <v>-0.0587</v>
       </c>
       <c r="C4">
-        <v>0.0301199725288838</v>
+        <v>0.0301</v>
       </c>
       <c r="D4">
-        <v>-1.948855601651641</v>
+        <v>-1.9489</v>
       </c>
       <c r="E4">
-        <v>0.06217990102517377</v>
+        <v>0.0622</v>
       </c>
     </row>
     <row r="5">
@@ -449,16 +449,16 @@
         </is>
       </c>
       <c r="B5">
-        <v>-0.2490669795707022</v>
+        <v>-0.2491</v>
       </c>
       <c r="C5">
-        <v>0.03585021447228291</v>
+        <v>0.0359</v>
       </c>
       <c r="D5">
-        <v>-6.94743345993829</v>
+        <v>-6.9474</v>
       </c>
       <c r="E5">
-        <v>2.239539734590908e-007</v>
+        <v>0</v>
       </c>
     </row>
     <row r="6">
@@ -468,16 +468,16 @@
         </is>
       </c>
       <c r="B6">
-        <v>0.06179045099957727</v>
+        <v>0.0618</v>
       </c>
       <c r="C6">
-        <v>0.0265620734553402</v>
+        <v>0.0266</v>
       </c>
       <c r="D6">
-        <v>2.326266099047872</v>
+        <v>2.3263</v>
       </c>
       <c r="E6">
-        <v>0.02806773838961145</v>
+        <v>0.0281</v>
       </c>
     </row>
     <row r="7">
@@ -487,16 +487,16 @@
         </is>
       </c>
       <c r="B7">
-        <v>0.1523430466551833</v>
+        <v>0.1523</v>
       </c>
       <c r="C7">
-        <v>0.03734146547102728</v>
+        <v>0.0373</v>
       </c>
       <c r="D7">
-        <v>4.079728653750457</v>
+        <v>4.0797</v>
       </c>
       <c r="E7">
-        <v>0.0003796371259625206</v>
+        <v>0.0004</v>
       </c>
     </row>
     <row r="8">
@@ -506,16 +506,16 @@
         </is>
       </c>
       <c r="B8">
-        <v>0.1175572978408457</v>
+        <v>0.1176</v>
       </c>
       <c r="C8">
-        <v>0.03868249021647331</v>
+        <v>0.0387</v>
       </c>
       <c r="D8">
-        <v>3.039031282189345</v>
+        <v>3.039</v>
       </c>
       <c r="E8">
-        <v>0.005352251182411025</v>
+        <v>0.0054</v>
       </c>
     </row>
   </sheetData>

--- a/table/lm/abu_sp_lm.xlsx
+++ b/table/lm/abu_sp_lm.xlsx
@@ -445,7 +445,7 @@
     <row r="5">
       <c r="A5" t="inlineStr">
         <is>
-          <t>CruiseOR1-1242</t>
+          <t>MonthOctober</t>
         </is>
       </c>
       <c r="B5">
@@ -483,7 +483,7 @@
     <row r="7">
       <c r="A7" t="inlineStr">
         <is>
-          <t>DRM:CruiseOR1-1242</t>
+          <t>DRM:MonthOctober</t>
         </is>
       </c>
       <c r="B7">
@@ -502,7 +502,7 @@
     <row r="8">
       <c r="A8" t="inlineStr">
         <is>
-          <t>Depth:CruiseOR1-1242</t>
+          <t>Depth:MonthOctober</t>
         </is>
       </c>
       <c r="B8">
@@ -560,10 +560,10 @@
     </row>
     <row r="2">
       <c r="A2">
-        <v>0.7929473038810526</v>
+        <v>0.7929473038810525</v>
       </c>
       <c r="B2">
-        <v>0.7451659124689878</v>
+        <v>0.7451659124689877</v>
       </c>
       <c r="C2">
         <v>16.59531630300815</v>
@@ -572,7 +572,7 @@
         <v>26</v>
       </c>
       <c r="E2">
-        <v>8.808597263347452e-008</v>
+        <v>8.808597263347452e-08</v>
       </c>
     </row>
   </sheetData>
